--- a/2020/com-20200920.xlsx
+++ b/2020/com-20200920.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrye/personal/mac/results/2020/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FA5C79-C55A-9246-A6A7-6EFAB6027CD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10695" yWindow="-15" windowWidth="10755" windowHeight="9210"/>
+    <workbookView xWindow="10700" yWindow="460" windowWidth="18000" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="com sept 20 2020_fin" sheetId="1" r:id="rId1"/>
@@ -202,9 +208,6 @@
     <t xml:space="preserve"> NATHAN THALHUBER</t>
   </si>
   <si>
-    <t xml:space="preserve"> KIM JOHN CRRUMB</t>
-  </si>
-  <si>
     <t xml:space="preserve"> JESSE SYBESMA</t>
   </si>
   <si>
@@ -380,16 +383,19 @@
   </si>
   <si>
     <t xml:space="preserve"> 0:58.115</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KIM JOHN CRUMB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,6 +953,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -993,7 +1007,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1025,9 +1039,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1059,6 +1091,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1234,41 +1284,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="9" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1276,10 +1326,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1287,10 +1337,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1298,15 +1348,15 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1314,10 +1364,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1325,10 +1375,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1336,10 +1386,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
@@ -1347,10 +1397,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1358,15 +1408,15 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -1374,10 +1424,10 @@
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
@@ -1385,15 +1435,15 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -1401,15 +1451,15 @@
         <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
@@ -1417,58 +1467,58 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
@@ -1476,10 +1526,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
@@ -1487,10 +1537,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>10</v>
       </c>
@@ -1498,10 +1548,10 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
@@ -1509,10 +1559,10 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1520,15 +1570,15 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>16</v>
       </c>
@@ -1536,10 +1586,10 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>16</v>
       </c>
@@ -1547,10 +1597,10 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>16</v>
       </c>
@@ -1558,15 +1608,15 @@
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33"/>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>52</v>
       </c>
@@ -1574,26 +1624,26 @@
         <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36"/>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>59</v>
       </c>
@@ -1601,26 +1651,26 @@
         <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
         <v>20</v>
       </c>
@@ -1628,10 +1678,10 @@
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
         <v>20</v>
       </c>
@@ -1639,10 +1689,10 @@
         <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>20</v>
       </c>
@@ -1650,15 +1700,15 @@
         <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
         <v>24</v>
       </c>
@@ -1666,15 +1716,15 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="5" t="s">
         <v>50</v>
       </c>
@@ -1682,10 +1732,10 @@
         <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
         <v>50</v>
       </c>
@@ -1693,13 +1743,13 @@
         <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
         <v>54</v>
       </c>
@@ -1707,13 +1757,13 @@
         <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51" s="5" t="s">
         <v>57</v>
       </c>
@@ -1721,17 +1771,17 @@
         <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>4</v>
@@ -1741,12 +1791,12 @@
       </c>
       <c r="D53" s="8"/>
       <c r="E53" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>27</v>
@@ -1756,12 +1806,12 @@
       </c>
       <c r="D54" s="8"/>
       <c r="E54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>29</v>
@@ -1771,12 +1821,12 @@
       </c>
       <c r="D55" s="8"/>
       <c r="E55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>29</v>
@@ -1786,12 +1836,12 @@
       </c>
       <c r="D56" s="8"/>
       <c r="E56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>32</v>
@@ -1801,12 +1851,12 @@
       </c>
       <c r="D57" s="8"/>
       <c r="E57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>34</v>
@@ -1816,12 +1866,12 @@
       </c>
       <c r="D58" s="8"/>
       <c r="E58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>27</v>
@@ -1831,12 +1881,12 @@
       </c>
       <c r="D59" s="8"/>
       <c r="E59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>37</v>
@@ -1846,12 +1896,12 @@
       </c>
       <c r="D60" s="8"/>
       <c r="E60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>39</v>
@@ -1861,17 +1911,17 @@
       </c>
       <c r="D61" s="8"/>
       <c r="E61" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="8"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>41</v>
@@ -1881,12 +1931,12 @@
       </c>
       <c r="D63" s="7"/>
       <c r="E63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>41</v>
@@ -1896,12 +1946,12 @@
       </c>
       <c r="D64" s="7"/>
       <c r="E64" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>27</v>
@@ -1911,110 +1961,110 @@
       </c>
       <c r="D65" s="7"/>
       <c r="E65" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="8"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D68" s="8"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="2:4">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="4"/>
       <c r="C86" s="5"/>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="4"/>
       <c r="C87" s="5"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="4"/>
       <c r="C88" s="5"/>
       <c r="D88" s="2"/>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="4"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="2:4">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" s="4"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
